--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2011834.660403786</v>
+        <v>2116014.294854857</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228318</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>314.102210529649</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,7 +718,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>137.0709134223702</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189221</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7871683969284</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>141.1446905726939</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>115.6959712316548</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>119.4052401486912</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -947,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>308.2872984606437</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1069,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>44.52098532093966</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1105,7 +1107,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>256.681185702593</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>92.72329049755739</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>125.232299447815</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>94.79129945133077</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>45.26328185882871</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1433,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1528,10 +1530,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>34.45703212904731</v>
+        <v>92.20984583428664</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1588,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1610,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206839</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701342</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1765,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>40.32853379926716</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>39.19314274110882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1847,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>96.99837838564402</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365872</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>49.33251894259327</v>
       </c>
     </row>
     <row r="20">
@@ -2135,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2245,16 +2247,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>18.7084378797738</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -2290,13 +2292,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>56.10180801516488</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2381,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2479,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2491,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>143.547678087754</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2539,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>222.1774156618444</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2615,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174138</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>143.5476780877544</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>219.4517041866526</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2852,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2962,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>40.96105405076494</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,16 +3009,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>11.81332727249013</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3041,10 +3043,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.90570098813</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3092,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3196,7 +3198,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,10 +3243,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>245.0724546540071</v>
       </c>
       <c r="V34" t="n">
-        <v>99.65140663107616</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>130.1208074460236</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>33.8235172368711</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3484,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3512,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3560,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3667,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>22.54881804343218</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3721,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>72.57619040703456</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3755,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3910,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3955,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>18.52833786981382</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>32.05158559392667</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4043,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560542</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4141,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4192,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>193.9817902624347</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1320.35562273557</v>
+        <v>1197.073083428566</v>
       </c>
       <c r="C2" t="n">
-        <v>1320.35562273557</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810555</v>
@@ -4346,34 +4348,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410102</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V2" t="n">
-        <v>2823.329208306698</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W2" t="n">
-        <v>2470.560553036583</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X2" t="n">
-        <v>2097.094794775503</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y2" t="n">
-        <v>1706.955462799692</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="3">
@@ -4398,22 +4400,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4425,16 +4427,16 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
         <v>2242.828302297192</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>376.7853475753371</v>
+        <v>311.7508871962311</v>
       </c>
       <c r="C4" t="n">
-        <v>234.2149530574645</v>
+        <v>311.7508871962311</v>
       </c>
       <c r="D4" t="n">
-        <v>234.2149530574645</v>
+        <v>311.7508871962311</v>
       </c>
       <c r="E4" t="n">
-        <v>234.2149530574645</v>
+        <v>163.837793613838</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>163.837793613838</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181845</v>
+        <v>714.191931170001</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181845</v>
+        <v>714.191931170001</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181845</v>
+        <v>714.191931170001</v>
       </c>
       <c r="V4" t="n">
-        <v>666.2025176122977</v>
+        <v>714.191931170001</v>
       </c>
       <c r="W4" t="n">
-        <v>376.7853475753371</v>
+        <v>714.191931170001</v>
       </c>
       <c r="X4" t="n">
-        <v>376.7853475753371</v>
+        <v>714.191931170001</v>
       </c>
       <c r="Y4" t="n">
-        <v>376.7853475753371</v>
+        <v>493.3993520264709</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2107.513093752761</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1738.550576812349</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
         <v>1617.939223126803</v>
@@ -4562,13 +4564,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4577,40 +4579,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792695</v>
+        <v>2697.936093944079</v>
       </c>
       <c r="W5" t="n">
-        <v>2884.252265792695</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="X5" t="n">
-        <v>2884.252265792695</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="Y5" t="n">
-        <v>2494.112933816883</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="6">
@@ -4635,10 +4637,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
@@ -4699,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>280.4189916034637</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C7" t="n">
-        <v>111.4828086755568</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D7" t="n">
-        <v>111.4828086755568</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E7" t="n">
-        <v>111.4828086755568</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F7" t="n">
-        <v>111.4828086755568</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>111.4828086755568</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
@@ -4753,22 +4755,22 @@
         <v>729.2011216450112</v>
       </c>
       <c r="T7" t="n">
-        <v>729.2011216450112</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="U7" t="n">
-        <v>729.2011216450112</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="V7" t="n">
-        <v>729.2011216450112</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="W7" t="n">
-        <v>729.2011216450112</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="X7" t="n">
-        <v>501.2115707469939</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="Y7" t="n">
-        <v>280.4189916034637</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="8">
@@ -4778,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>921.7704558796265</v>
+        <v>1555.338782035317</v>
       </c>
       <c r="C8" t="n">
-        <v>921.7704558796265</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D8" t="n">
         <v>828.1105664881544</v>
@@ -4799,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>1945.478114011128</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943748</v>
+        <v>1555.338782035317</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>258.4497899404153</v>
+        <v>409.7032203507503</v>
       </c>
       <c r="C10" t="n">
-        <v>258.4497899404153</v>
+        <v>313.9544330261738</v>
       </c>
       <c r="D10" t="n">
-        <v>258.4497899404153</v>
+        <v>163.837793613838</v>
       </c>
       <c r="E10" t="n">
-        <v>212.7293032143257</v>
+        <v>163.837793613838</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143257</v>
+        <v>163.837793613838</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>729.2011216450114</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>729.2011216450114</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U10" t="n">
-        <v>440.098254770655</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V10" t="n">
-        <v>440.098254770655</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="W10" t="n">
-        <v>440.098254770655</v>
+        <v>409.7032203507503</v>
       </c>
       <c r="X10" t="n">
-        <v>440.098254770655</v>
+        <v>409.7032203507503</v>
       </c>
       <c r="Y10" t="n">
-        <v>440.098254770655</v>
+        <v>409.7032203507503</v>
       </c>
     </row>
     <row r="11">
@@ -5033,10 +5035,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
@@ -5045,43 +5047,43 @@
         <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>139.2347658407936</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>634.5603720565524</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1231.938859683104</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>948.5505208511905</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232836</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2412.158000621627</v>
+        <v>2103.921287069096</v>
       </c>
       <c r="U13" t="n">
-        <v>2123.082773965825</v>
+        <v>1814.846060413294</v>
       </c>
       <c r="V13" t="n">
-        <v>1868.398285759938</v>
+        <v>1560.161572207407</v>
       </c>
       <c r="W13" t="n">
-        <v>1578.981115722978</v>
+        <v>1560.161572207407</v>
       </c>
       <c r="X13" t="n">
-        <v>1350.99156482496</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y13" t="n">
-        <v>1130.19898568143</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5267,19 +5269,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,28 +5290,28 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
         <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1731.250242493492</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>948.5505208511905</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C16" t="n">
-        <v>779.6143379232836</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2157.473512415741</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1868.398285759938</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1868.398285759938</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1578.981115722978</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X16" t="n">
-        <v>1350.99156482496</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y16" t="n">
-        <v>1130.19898568143</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,19 +5527,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5549,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1268.578514636218</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190824</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>734.6461798836018</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C19" t="n">
-        <v>565.7099969556949</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D19" t="n">
-        <v>415.5933575433592</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E19" t="n">
-        <v>415.5933575433592</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611862</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138449</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.2946447138415</v>
+        <v>866.4638174991043</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5743,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,7 +5767,7 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694708</v>
@@ -5774,25 +5776,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>2381.235169913447</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>2381.235169913447</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>2876.560776129206</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>3406.350378974037</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>4033.948342528643</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>4033.948342528643</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3175.34112979674</v>
+        <v>2757.723669558405</v>
       </c>
       <c r="C22" t="n">
-        <v>3006.404946868833</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="D22" t="n">
-        <v>2856.288307456497</v>
+        <v>2438.670847218162</v>
       </c>
       <c r="E22" t="n">
-        <v>2708.375213874104</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="F22" t="n">
-        <v>2561.485266376194</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376194</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218392</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866305</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296629</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822168</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998108</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729143</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389151</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098136</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671695</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650996</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.932614305901</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T22" t="n">
-        <v>4440.932614305901</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U22" t="n">
-        <v>4151.857387650099</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V22" t="n">
-        <v>4095.188894705488</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W22" t="n">
-        <v>3805.771724668527</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X22" t="n">
-        <v>3577.782173770509</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y22" t="n">
-        <v>3356.989594626979</v>
+        <v>2939.372134388645</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5980,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819251</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6029,7 +6031,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
         <v>2283.159972732779</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>806.8386896933887</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C25" t="n">
-        <v>637.9025067654818</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654818</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>4295.934959671805</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>4006.859733016003</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>3752.175244810116</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.70136564882</v>
+        <v>3752.175244810116</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.279733667159</v>
+        <v>3524.185693912098</v>
       </c>
       <c r="Y25" t="n">
-        <v>988.4871545236284</v>
+        <v>3524.185693912098</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,25 +6214,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479719</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.55866301478</v>
@@ -6239,34 +6241,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N27" t="n">
-        <v>1468.439756756785</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2445.740023695907</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T28" t="n">
-        <v>2052.064890853472</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U28" t="n">
-        <v>1762.98966419767</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="V28" t="n">
-        <v>1508.305175991783</v>
+        <v>3966.646661122954</v>
       </c>
       <c r="W28" t="n">
-        <v>1508.305175991783</v>
+        <v>3966.646661122954</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.315625093766</v>
+        <v>3744.978273055629</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>3524.185693912098</v>
       </c>
     </row>
     <row r="29">
@@ -6452,58 +6454,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>680.0291294438171</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3033.629298638938</v>
+        <v>3301.825327801252</v>
       </c>
       <c r="C31" t="n">
-        <v>2864.693115711031</v>
+        <v>3132.889144873345</v>
       </c>
       <c r="D31" t="n">
-        <v>2714.576476298695</v>
+        <v>2982.77250546101</v>
       </c>
       <c r="E31" t="n">
-        <v>2566.663382716302</v>
+        <v>2834.859411878616</v>
       </c>
       <c r="F31" t="n">
-        <v>2419.773435218392</v>
+        <v>2687.969464380706</v>
       </c>
       <c r="G31" t="n">
-        <v>2419.773435218392</v>
+        <v>2520.773365095586</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218392</v>
+        <v>2379.061533937784</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866305</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296629</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822168</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998108</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729143</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389151</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098136</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671695</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398594</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S31" t="n">
-        <v>4507.978318053499</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T31" t="n">
-        <v>4288.37685307644</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U31" t="n">
-        <v>3999.301626420638</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V31" t="n">
-        <v>3744.617138214751</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="W31" t="n">
-        <v>3455.199968177791</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="X31" t="n">
-        <v>3227.210417279774</v>
+        <v>3704.266371775022</v>
       </c>
       <c r="Y31" t="n">
-        <v>3215.277763469177</v>
+        <v>3483.473792631492</v>
       </c>
     </row>
     <row r="32">
@@ -6686,19 +6688,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6716,10 +6718,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6728,16 +6730,16 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
         <v>3094.515198591809</v>
@@ -6777,28 +6779,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>956.9553291057244</v>
+        <v>3053.935450426146</v>
       </c>
       <c r="C34" t="n">
-        <v>788.0191461778176</v>
+        <v>2884.99926749824</v>
       </c>
       <c r="D34" t="n">
-        <v>637.9025067654818</v>
+        <v>2734.882628085904</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000582</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510509</v>
+        <v>3973.783215334895</v>
       </c>
       <c r="V34" t="n">
-        <v>1876.803094014472</v>
+        <v>3973.783215334895</v>
       </c>
       <c r="W34" t="n">
-        <v>1587.385923977512</v>
+        <v>3684.366045297934</v>
       </c>
       <c r="X34" t="n">
-        <v>1359.396373079494</v>
+        <v>3456.376494399916</v>
       </c>
       <c r="Y34" t="n">
-        <v>1138.603793935964</v>
+        <v>3235.583915256386</v>
       </c>
     </row>
     <row r="35">
@@ -6929,19 +6931,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -6956,28 +6958,28 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C36" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D36" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>2876.560776129205</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>3473.939263755757</v>
       </c>
       <c r="N36" t="n">
-        <v>1336.167399417937</v>
+        <v>4101.537227310363</v>
       </c>
       <c r="O36" t="n">
-        <v>1888.077129657224</v>
+        <v>4101.537227310363</v>
       </c>
       <c r="P36" t="n">
-        <v>2311.700279152293</v>
+        <v>4525.160376805431</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R36" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S36" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T36" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U36" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V36" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W36" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X36" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y36" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>984.9192356072657</v>
       </c>
       <c r="C37" t="n">
-        <v>382.4184417036842</v>
+        <v>815.9830526793588</v>
       </c>
       <c r="D37" t="n">
-        <v>382.4184417036842</v>
+        <v>665.8664132670231</v>
       </c>
       <c r="E37" t="n">
-        <v>382.4184417036842</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570811</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279796</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853355</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832657</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487561</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510502</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.3858538547</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648813</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.701365648813</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>1205.711814750796</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>984.9192356072657</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7166,46 +7168,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349513</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>931.4710609784063</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C40" t="n">
-        <v>762.5348780504994</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D40" t="n">
-        <v>612.4182386381636</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E40" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2174.285961605313</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1885.210734949511</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1630.526246743624</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1341.109076706663</v>
+        <v>1360.39208240939</v>
       </c>
       <c r="X40" t="n">
-        <v>1113.119525808646</v>
+        <v>1132.402531511373</v>
       </c>
       <c r="Y40" t="n">
-        <v>1113.119525808646</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="41">
@@ -7391,28 +7393,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7427,31 +7429,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>2381.235169913447</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>2715.159942084667</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>3210.485548300426</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M42" t="n">
-        <v>3807.864035926978</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>3807.864035926978</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O42" t="n">
-        <v>4359.773766166265</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>4420.931837070599</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445482</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>956.9553291057244</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C43" t="n">
-        <v>788.0191461778176</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D43" t="n">
-        <v>637.9025067654818</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830887</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.385853854707</v>
+        <v>1669.670361056914</v>
       </c>
       <c r="W43" t="n">
-        <v>1398.968683817746</v>
+        <v>1380.253191019954</v>
       </c>
       <c r="X43" t="n">
-        <v>1170.979132919728</v>
+        <v>1152.263640121936</v>
       </c>
       <c r="Y43" t="n">
-        <v>1138.603793935964</v>
+        <v>931.4710609784063</v>
       </c>
     </row>
     <row r="44">
@@ -7640,16 +7642,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,31 +7660,31 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
         <v>3467.980956852889</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2231.588527385792</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>2231.588527385792</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>2231.588527385792</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>2726.914133601551</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M45" t="n">
-        <v>3324.292621228103</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N45" t="n">
-        <v>3951.89058478271</v>
+        <v>1368.154262550759</v>
       </c>
       <c r="O45" t="n">
-        <v>4420.931837070599</v>
+        <v>1920.063992790046</v>
       </c>
       <c r="P45" t="n">
-        <v>4420.931837070599</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>4654.193497445482</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>639.6425904082687</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>470.7064074803617</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>470.7064074803617</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>322.7933138979686</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1559.490355317017</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1270.073185280056</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1042.083634382039</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>821.2910552385084</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23416,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>182.948418198241</v>
+        <v>125.1956044930016</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>126.9182872993607</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23704,16 +23706,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>178.2123075861795</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>48.42266963728723</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922658</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>169.2521344095015</v>
       </c>
     </row>
     <row r="20">
@@ -24133,16 +24135,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>127.7255247667954</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24178,13 +24180,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>196.0358353086631</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24379,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24415,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>73.85777223953428</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>3.532239727192774</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24652,10 +24654,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>73.85777223953383</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24666,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>6.257951202384561</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>40.3047822678006</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>206.7713260796046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25084,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25129,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>41.11201973523706</v>
       </c>
       <c r="V34" t="n">
-        <v>152.4862366927518</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>37.1260136526042</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>112.6104454096981</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25372,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25555,13 +25557,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25600,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>194.8566322838561</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>213.9468079295564</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25798,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>233.6093054540142</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>186.5330677581681</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26029,16 +26031,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26080,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>58.15585306139334</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>842573.8638075643</v>
+        <v>842573.8638075644</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>842573.8638075643</v>
+        <v>842573.8638075644</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>842573.8638075643</v>
+        <v>842573.8638075644</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>842573.8638075641</v>
+        <v>842573.8638075643</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>842573.8638075641</v>
+        <v>842573.8638075643</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="C2" t="n">
         <v>595255.2831516053</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516056</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="F2" t="n">
+        <v>585181.2847752541</v>
+      </c>
+      <c r="G2" t="n">
         <v>585181.2847752544</v>
-      </c>
-      <c r="G2" t="n">
-        <v>585181.2847752542</v>
       </c>
       <c r="H2" t="n">
         <v>585181.2847752543</v>
@@ -26335,25 +26337,25 @@
         <v>585181.2847752542</v>
       </c>
       <c r="J2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="K2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="L2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="M2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="N2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="O2" t="n">
-        <v>585181.2847752541</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752543</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,31 +26374,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405259</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189193</v>
+        <v>16046.58397189201</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189203</v>
       </c>
       <c r="H4" t="n">
         <v>16046.58397189197</v>
@@ -26439,16 +26441,16 @@
         <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.58397189194</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
-        <v>16046.58397189202</v>
+        <v>16046.58397189191</v>
       </c>
       <c r="M4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189189</v>
       </c>
       <c r="N4" t="n">
         <v>16046.58397189197</v>
@@ -26457,7 +26459,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="P4" t="n">
-        <v>16046.58397189195</v>
+        <v>16046.58397189197</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-935020.1472414328</v>
+        <v>-935020.1472414332</v>
       </c>
       <c r="C6" t="n">
         <v>393724.5984861595</v>
       </c>
       <c r="D6" t="n">
-        <v>393724.5984861597</v>
+        <v>393724.5984861598</v>
       </c>
       <c r="E6" t="n">
-        <v>142599.7091720998</v>
+        <v>142599.7091721002</v>
       </c>
       <c r="F6" t="n">
-        <v>468012.1709794554</v>
+        <v>468012.1709794549</v>
       </c>
       <c r="G6" t="n">
+        <v>468012.1709794553</v>
+      </c>
+      <c r="H6" t="n">
         <v>468012.1709794551</v>
       </c>
-      <c r="H6" t="n">
-        <v>468012.1709794552</v>
-      </c>
       <c r="I6" t="n">
-        <v>468012.1709794551</v>
+        <v>468012.1709794553</v>
       </c>
       <c r="J6" t="n">
-        <v>250480.9685821777</v>
+        <v>250480.9685821778</v>
       </c>
       <c r="K6" t="n">
         <v>468012.1709794552</v>
       </c>
       <c r="L6" t="n">
-        <v>468012.1709794551</v>
+        <v>468012.1709794554</v>
       </c>
       <c r="M6" t="n">
-        <v>382957.1430439436</v>
+        <v>382957.1430439434</v>
       </c>
       <c r="N6" t="n">
-        <v>468012.1709794551</v>
+        <v>468012.1709794553</v>
       </c>
       <c r="O6" t="n">
-        <v>468012.170979455</v>
+        <v>468012.1709794553</v>
       </c>
       <c r="P6" t="n">
-        <v>468012.1709794554</v>
+        <v>468012.1709794552</v>
       </c>
     </row>
   </sheetData>
@@ -26695,13 +26697,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26917,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>68.6316311338316</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>190.6813450477648</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>26.10213052593394</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>74.07305409978713</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27594,16 +27596,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>235.2778014719918</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27667,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>19.46496000949122</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27789,7 +27791,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>100.2340295933811</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27825,7 +27827,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27834,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>29.84181263399802</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>261.9597511231256</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27916,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>244.498801230654</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>72.45552164729706</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>101.1706807877405</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,10 +28028,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,19 +28061,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28384,7 +28386,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>7.394985773160066e-13</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28782,7 +28784,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>3.758651504979533e-12</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -29755,7 +29757,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>-5.430414738572741e-14</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29764,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>-5.430414738572741e-14</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29803,7 +29805,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>-1.356512143992216e-12</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29812,7 +29814,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>-5.430414738572741e-14</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -31039,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31610,7 +31612,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
         <v>609.6478166837925</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>183.7183104822597</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32080,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>344.2757660550394</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>677.2750468965962</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32558,19 +32560,19 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>677.2750468965949</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>375.1407109807906</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>249.1672590991333</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>191.332301678856</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,13 +33016,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,31 +33034,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>574.6535388222617</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>248.3870916262918</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>240.4469701760385</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>671.9287955253226</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>754.0002396832328</v>
       </c>
       <c r="O33" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33740,34 +33742,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>346.7710205055862</v>
+        <v>270.3182595810212</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33892,34 +33894,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>473.8581708471796</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>233.3139244897921</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>195.7502366106269</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>616.3752871594841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>500.7380235181012</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35258,7 +35260,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
         <v>478.3061046004592</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>45.87687150790074</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>212.9340539717061</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>535.141012974578</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36206,19 +36208,19 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>535.1410129745766</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>243.7989988974573</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>59.99058959552271</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36683,16 +36685,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>432.0572943778172</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>108.4053175402703</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>101.8925903961643</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>529.7947616033043</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>622.6585275998996</v>
       </c>
       <c r="O33" t="n">
-        <v>22.33282074962425</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37390,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>206.7892464195647</v>
+        <v>130.3364854949997</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899011</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>342.5164587638463</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396415</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>94.75954470991793</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>61.77582919629669</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>473.7790427150396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>366.763616103771</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2116014.294854857</v>
+        <v>2112001.684840865</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.105228318</v>
       </c>
     </row>
     <row r="9">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>314.102210529649</v>
+        <v>282.6988068886399</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>190.7165703189231</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969284</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>115.6959712316548</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>41.74347609701282</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>195.5565936082882</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -949,19 +949,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>308.2872984606437</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>256.681185702593</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>58.28185552386351</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>67.3751214931855</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>125.232299447815</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>94.79129945133077</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>131.5522128412688</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784676</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>100.58583229927</v>
       </c>
       <c r="T13" t="n">
-        <v>92.20984583428664</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1660,13 +1660,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701342</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>116.4636264596558</v>
       </c>
       <c r="C16" t="n">
-        <v>40.32853379926716</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465632</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1846,10 +1846,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365872</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>49.33251894259327</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,13 +2134,13 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>18.7084378797738</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2490,13 +2490,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>143.547678087754</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282041</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,16 +2769,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>219.4517041866526</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2958,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>40.96105405076494</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,10 +3009,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.90570098813</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3195,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,10 +3243,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>245.0724546540071</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>33.8235172368711</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>3.006892987834567</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3669,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>71.79687029691044</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>72.57619040703456</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756243</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>18.52833786981382</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4194,13 +4194,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>251.7801198313581</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1197.073083428566</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>828.1105664881545</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>828.1105664881545</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881545</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4369,13 +4369,13 @@
         <v>2630.721789066531</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796416</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X2" t="n">
-        <v>1904.487375535336</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="Y2" t="n">
-        <v>1514.348043559525</v>
+        <v>2630.721789066531</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
         <v>66.5121164321834</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>311.7508871962311</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="C4" t="n">
-        <v>311.7508871962311</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="D4" t="n">
-        <v>311.7508871962311</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E4" t="n">
-        <v>163.837793613838</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
         <v>66.5121164321834</v>
@@ -4512,28 +4512,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>714.191931170001</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>714.191931170001</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>714.191931170001</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>714.191931170001</v>
+        <v>878.7218784474649</v>
       </c>
       <c r="W4" t="n">
-        <v>714.191931170001</v>
+        <v>589.3047084105042</v>
       </c>
       <c r="X4" t="n">
-        <v>714.191931170001</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="Y4" t="n">
-        <v>493.3993520264709</v>
+        <v>361.3151575124868</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1517.887535471215</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1517.887535471215</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520487</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.936093944079</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2345.167438673965</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X5" t="n">
-        <v>2345.167438673965</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y5" t="n">
-        <v>2345.167438673965</v>
+        <v>1904.487375535336</v>
       </c>
     </row>
     <row r="6">
@@ -4622,64 +4622,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.5121164321834</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>66.5121164321834</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>66.5121164321834</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E7" t="n">
-        <v>66.5121164321834</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
         <v>66.5121164321834</v>
@@ -4752,25 +4752,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>507.4345062145372</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>507.4345062145372</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>507.4345062145372</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>248.1605812624231</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X7" t="n">
-        <v>248.1605812624231</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y7" t="n">
-        <v>248.1605812624231</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1555.338782035317</v>
+        <v>921.7704558796247</v>
       </c>
       <c r="C8" t="n">
-        <v>1186.376265094905</v>
+        <v>552.807938939213</v>
       </c>
       <c r="D8" t="n">
-        <v>828.1105664881544</v>
+        <v>194.5422403324625</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881544</v>
+        <v>194.5422403324625</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>187.5967395832591</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>176.5646934686596</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4816,16 +4816,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
         <v>3325.60582160917</v>
@@ -4837,19 +4837,19 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W8" t="n">
         <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>1945.478114011128</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y8" t="n">
-        <v>1555.338782035317</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="9">
@@ -4874,28 +4874,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>409.7032203507503</v>
+        <v>385.564938772426</v>
       </c>
       <c r="C10" t="n">
-        <v>313.9544330261738</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T10" t="n">
-        <v>699.1203903877109</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U10" t="n">
-        <v>699.1203903877109</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V10" t="n">
-        <v>699.1203903877109</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W10" t="n">
-        <v>409.7032203507503</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X10" t="n">
-        <v>409.7032203507503</v>
+        <v>788.0059827461959</v>
       </c>
       <c r="Y10" t="n">
-        <v>409.7032203507503</v>
+        <v>567.2134036026657</v>
       </c>
     </row>
     <row r="11">
@@ -5026,25 +5026,25 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5068,19 +5068,19 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591808</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>929.7309773356195</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2345.361232772917</v>
       </c>
       <c r="T13" t="n">
-        <v>2103.921287069096</v>
+        <v>2125.759767795858</v>
       </c>
       <c r="U13" t="n">
-        <v>1814.846060413294</v>
+        <v>1836.684541140056</v>
       </c>
       <c r="V13" t="n">
-        <v>1560.161572207407</v>
+        <v>1582.000052934169</v>
       </c>
       <c r="W13" t="n">
-        <v>1560.161572207407</v>
+        <v>1292.582882897208</v>
       </c>
       <c r="X13" t="n">
-        <v>1332.172021309389</v>
+        <v>1064.593331999191</v>
       </c>
       <c r="Y13" t="n">
-        <v>1111.379442165859</v>
+        <v>843.8007528556607</v>
       </c>
     </row>
     <row r="14">
@@ -5272,7 +5272,7 @@
         <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192616</v>
@@ -5287,13 +5287,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,22 +5354,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.2707707770319</v>
+        <v>577.8620388433859</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780504994</v>
+        <v>408.925855915479</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>408.925855915479</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5475,13 +5475,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611463</v>
@@ -5506,22 +5506,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5533,34 +5533,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>866.4638174991043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5712,13 +5712,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611862</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138449</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>866.4638174991043</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111716</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694708</v>
@@ -5779,25 +5779,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2757.723669558405</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>2588.787486630498</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>2438.670847218162</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>2419.773435218391</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>2419.773435218391</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>2419.773435218391</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>2939.372134388645</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5983,40 +5983,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6025,10 +6025,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
         <v>3094.515198591809</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>214.9229991561138</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>214.9229991561138</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3342.537229081859</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C25" t="n">
-        <v>3173.601046153952</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D25" t="n">
-        <v>3023.484406741616</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159223</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>4295.934959671805</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>4006.859733016003</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V25" t="n">
-        <v>3752.175244810116</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W25" t="n">
-        <v>3752.175244810116</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X25" t="n">
-        <v>3524.185693912098</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y25" t="n">
-        <v>3524.185693912098</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="26">
@@ -6217,37 +6217,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>4221.331149328841</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>3966.646661122954</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>3966.646661122954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3301.825327801252</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>3132.889144873345</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>2982.77250546101</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E31" t="n">
-        <v>2834.859411878616</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F31" t="n">
-        <v>2687.969464380706</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G31" t="n">
-        <v>2520.773365095586</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>2379.061533937784</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>3932.255922673039</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>3932.255922673039</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>3704.266371775022</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>3483.473792631492</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6742,7 +6742,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3053.935450426146</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>2884.99926749824</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>2734.882628085904</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E34" t="n">
-        <v>2586.969534503511</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F34" t="n">
-        <v>2586.969534503511</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>3973.783215334895</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>3973.783215334895</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>3684.366045297934</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>3456.376494399916</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>3235.583915256386</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>2876.560776129205</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>3473.939263755757</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>4101.537227310363</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>4101.537227310363</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>4525.160376805431</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>984.9192356072657</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C37" t="n">
-        <v>815.9830526793588</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D37" t="n">
-        <v>665.8664132670231</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>264.0500279773693</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570811</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279796</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853355</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832657</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487561</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510502</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.3858538547</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648813</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.701365648813</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1205.711814750796</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y37" t="n">
-        <v>984.9192356072657</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="38">
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,16 +7186,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>950.7540666811333</v>
+        <v>800.5007694647281</v>
       </c>
       <c r="C40" t="n">
-        <v>781.8178837532264</v>
+        <v>631.5645865368213</v>
       </c>
       <c r="D40" t="n">
-        <v>631.7012443408906</v>
+        <v>481.4479471244855</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>333.5348535420924</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W40" t="n">
-        <v>1360.39208240939</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X40" t="n">
-        <v>1132.402531511373</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y40" t="n">
-        <v>1132.402531511373</v>
+        <v>982.1492342949679</v>
       </c>
     </row>
     <row r="41">
@@ -7393,28 +7393,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>931.4710609784063</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C43" t="n">
-        <v>762.5348780504994</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D43" t="n">
-        <v>612.4182386381636</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E43" t="n">
-        <v>464.5051450557705</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V43" t="n">
-        <v>1669.670361056914</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W43" t="n">
-        <v>1380.253191019954</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X43" t="n">
-        <v>1152.263640121936</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y43" t="n">
-        <v>931.4710609784063</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="44">
@@ -7636,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,16 +7660,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>740.5562989961525</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1368.154262550759</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1920.063992790046</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>80.44045370237458</v>
       </c>
       <c r="T13" t="n">
-        <v>125.1956044930016</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>63.36835372228151</v>
       </c>
       <c r="C16" t="n">
-        <v>126.9182872993607</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>169.2521344095015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>127.7255247667954</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>73.85777223953428</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>125.5054897610401</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,16 +24657,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>6.257951202384561</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>40.3047822678006</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459264</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>41.11201973523706</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>112.6104454096981</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>142.4141550350967</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>73.6241777260208</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>213.9468079295564</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>110.0033420516639</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>233.6093054540142</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>0.3575234924699089</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>842573.8638075644</v>
+        <v>842573.8638075643</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>842573.8638075643</v>
+        <v>842573.8638075641</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>842573.8638075643</v>
+        <v>842573.8638075641</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>842573.8638075644</v>
+        <v>842573.8638075641</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>842573.8638075644</v>
+        <v>842573.8638075641</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>842573.8638075643</v>
+        <v>842573.8638075641</v>
       </c>
     </row>
     <row r="13">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="C2" t="n">
         <v>595255.2831516053</v>
@@ -26322,40 +26322,40 @@
         <v>595255.2831516056</v>
       </c>
       <c r="E2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="F2" t="n">
         <v>585181.2847752545</v>
-      </c>
-      <c r="F2" t="n">
-        <v>585181.2847752541</v>
       </c>
       <c r="G2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="H2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="I2" t="n">
         <v>585181.2847752543</v>
-      </c>
-      <c r="I2" t="n">
-        <v>585181.2847752542</v>
       </c>
       <c r="J2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="K2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="L2" t="n">
         <v>585181.2847752543</v>
-      </c>
-      <c r="L2" t="n">
-        <v>585181.2847752544</v>
       </c>
       <c r="M2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="N2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="O2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752542</v>
       </c>
     </row>
     <row r="3">
@@ -26374,16 +26374,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,25 +26420,25 @@
         <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405259</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189206</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189201</v>
+        <v>16046.58397189207</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189203</v>
+        <v>16046.58397189205</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189205</v>
       </c>
       <c r="I4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189192</v>
       </c>
       <c r="J4" t="n">
         <v>16046.58397189197</v>
@@ -26447,10 +26447,10 @@
         <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
-        <v>16046.58397189191</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
-        <v>16046.58397189189</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="N4" t="n">
         <v>16046.58397189197</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-935020.1472414332</v>
+        <v>-935020.1472414333</v>
       </c>
       <c r="C6" t="n">
-        <v>393724.5984861595</v>
+        <v>393724.5984861594</v>
       </c>
       <c r="D6" t="n">
-        <v>393724.5984861598</v>
+        <v>393724.59848616</v>
       </c>
       <c r="E6" t="n">
-        <v>142599.7091721002</v>
+        <v>142252.3299177427</v>
       </c>
       <c r="F6" t="n">
-        <v>468012.1709794549</v>
+        <v>467664.7917250985</v>
       </c>
       <c r="G6" t="n">
-        <v>468012.1709794553</v>
+        <v>467664.7917250984</v>
       </c>
       <c r="H6" t="n">
-        <v>468012.1709794551</v>
+        <v>467664.7917250984</v>
       </c>
       <c r="I6" t="n">
-        <v>468012.1709794553</v>
+        <v>467664.7917250984</v>
       </c>
       <c r="J6" t="n">
-        <v>250480.9685821778</v>
+        <v>250133.5893278208</v>
       </c>
       <c r="K6" t="n">
-        <v>468012.1709794552</v>
+        <v>467664.7917250981</v>
       </c>
       <c r="L6" t="n">
-        <v>468012.1709794554</v>
+        <v>467664.7917250982</v>
       </c>
       <c r="M6" t="n">
-        <v>382957.1430439434</v>
+        <v>382609.7637895864</v>
       </c>
       <c r="N6" t="n">
-        <v>468012.1709794553</v>
+        <v>467664.7917250982</v>
       </c>
       <c r="O6" t="n">
-        <v>468012.1709794553</v>
+        <v>467664.7917250982</v>
       </c>
       <c r="P6" t="n">
-        <v>468012.1709794552</v>
+        <v>467664.7917250981</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26795,7 +26795,7 @@
         <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26916,10 +26916,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,10 +27153,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>68.6316311338316</v>
+        <v>100.0350347748407</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27548,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>74.07305409978713</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27596,16 +27596,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>210.3941672268152</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>159.1264480123947</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>19.46496000949122</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27776,16 +27776,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27824,10 +27824,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>29.84181263399802</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>160.3027978282313</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>227.232642894135</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>244.498801230654</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>72.45552164729706</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>94.15744254776834</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,19 +28089,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28140,22 +28140,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1.445284526978087e-12</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28338,13 +28338,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28380,13 +28380,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>7.394985773160066e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28493,7 +28493,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>5.938087749907733e-12</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -28566,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28578,10 +28578,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28784,7 +28784,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>3.758651504979533e-12</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28854,13 +28854,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29052,7 +29052,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29091,7 +29091,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -29757,7 +29757,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>-5.430414738572741e-14</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>-5.430414738572741e-14</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29805,7 +29805,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>-1.356512143992216e-12</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29814,7 +29814,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>-5.430414738572741e-14</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
         <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31849,13 +31849,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -32074,10 +32074,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32323,13 +32323,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32496,7 +32496,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043711</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32548,13 +32548,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473073</v>
@@ -32563,13 +32563,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>375.1407109807906</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>249.1672590991333</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>248.3870916262918</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>671.9287955253226</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>270.3182595810212</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33894,34 +33894,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>233.3139244897921</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>500.7380235181012</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
         <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35497,13 +35497,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35971,13 +35971,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.3288951674331</v>
@@ -36211,13 +36211,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>243.7989988974573</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>122.3296324324666</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>108.4053175402703</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>529.7947616033043</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.3364854949997</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899011</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,22 +37864,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>94.75954470991793</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>366.763616103771</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2112001.684840865</v>
+        <v>2113762.21514365</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228318</v>
+        <v>416855.105228319</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>282.6988068886399</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>42.24406744395584</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -712,19 +712,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414544</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0.325857408857168</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>41.74347609701282</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>195.5565936082882</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>78.29684714664121</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>94.57983363108016</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1068,10 +1068,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>58.28185552386351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>67.3751214931855</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>218.874843550685</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1299,13 +1299,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>58.28185552386401</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>131.5522128412688</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784676</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922736</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>74.95497330697495</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>100.58583229927</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>116.4636264596558</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465632</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>246.4755938422903</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1846,10 +1846,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>1.799772605716168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2055,7 +2055,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>29.67382008037395</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2487,13 +2487,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>160.6789846282041</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>31.8302520576399</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>147.053668106558</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2958,16 +2958,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>99.97427419833861</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,10 +3009,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>40.96105405076426</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>99.97427419833861</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3432,16 +3432,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>3.006892987834567</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>71.79687029691044</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3909,13 +3909,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>35.41770597126623</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>107.4021082756243</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4194,13 +4194,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>251.7801198313581</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>2029.572515263129</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1660.609998322718</v>
       </c>
       <c r="D2" t="n">
         <v>1617.939223126803</v>
@@ -4333,7 +4333,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066531</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>2630.721789066531</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="X2" t="n">
-        <v>2630.721789066531</v>
+        <v>2029.572515263129</v>
       </c>
       <c r="Y2" t="n">
-        <v>2630.721789066531</v>
+        <v>2029.572515263129</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927777</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064525</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>361.3151575124868</v>
+        <v>403.4802848832069</v>
       </c>
       <c r="C4" t="n">
-        <v>361.3151575124868</v>
+        <v>234.5441019553</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124868</v>
+        <v>234.5441019553</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>234.5441019553</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
         <v>66.5121164321834</v>
@@ -4524,16 +4524,16 @@
         <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>878.7218784474649</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W4" t="n">
-        <v>589.3047084105042</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="X4" t="n">
-        <v>361.3151575124868</v>
+        <v>403.4802848832069</v>
       </c>
       <c r="Y4" t="n">
-        <v>361.3151575124868</v>
+        <v>403.4802848832069</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1517.887535471215</v>
+        <v>921.770455879627</v>
       </c>
       <c r="C5" t="n">
-        <v>1517.887535471215</v>
+        <v>552.8079389392153</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>194.5422403324648</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>194.5422403324648</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>187.5967395832614</v>
       </c>
       <c r="G5" t="n">
         <v>108.5090151927147</v>
@@ -4564,10 +4564,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4576,43 +4576,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066531</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796416</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535336</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>1904.487375535336</v>
+        <v>1308.370295943749</v>
       </c>
     </row>
     <row r="6">
@@ -4622,34 +4622,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064628</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
         <v>765.1517452158134</v>
@@ -4667,7 +4667,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125857</v>
@@ -4676,16 +4676,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680.3679798527295</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="C7" t="n">
-        <v>511.4317969248226</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124868</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>66.5121164321834</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="Y7" t="n">
-        <v>862.0164446829692</v>
+        <v>920.8870058181855</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>921.7704558796247</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C8" t="n">
-        <v>552.807938939213</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D8" t="n">
-        <v>194.5422403324625</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>194.5422403324625</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F8" t="n">
-        <v>187.5967395832591</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G8" t="n">
-        <v>176.5646934686596</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794323</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450752</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180638</v>
+        <v>2751.75146578281</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919558</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943746</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>385.564938772426</v>
+        <v>739.2385409879457</v>
       </c>
       <c r="C10" t="n">
-        <v>216.6287558445191</v>
+        <v>570.3023580600388</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218339</v>
+        <v>420.1857186477031</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218339</v>
+        <v>272.27262506531</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218339</v>
+        <v>125.3826775673996</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="X10" t="n">
-        <v>788.0059827461959</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="Y10" t="n">
-        <v>567.2134036026657</v>
+        <v>920.8870058181855</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797186</v>
@@ -5041,40 +5041,40 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123001</v>
@@ -5083,10 +5083,10 @@
         <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>662.1522880254209</v>
+        <v>945.402603663004</v>
       </c>
       <c r="C13" t="n">
-        <v>493.2161050975141</v>
+        <v>776.4664207350971</v>
       </c>
       <c r="D13" t="n">
-        <v>343.0994656851783</v>
+        <v>626.3497813227614</v>
       </c>
       <c r="E13" t="n">
-        <v>343.0994656851783</v>
+        <v>478.4366877403683</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>478.4366877403683</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>311.2405884552434</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>169.5287572974415</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797186</v>
@@ -5226,25 +5226,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2345.361232772917</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2125.759767795858</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1836.684541140056</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1582.000052934169</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1292.582882897208</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1064.593331999191</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>843.8007528556607</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803937</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>577.8620388433859</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C16" t="n">
-        <v>408.925855915479</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D16" t="n">
-        <v>408.925855915479</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611463</v>
@@ -5506,61 +5506,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192582</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D19" t="n">
-        <v>343.0994656851783</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E19" t="n">
-        <v>343.0994656851783</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5703,22 +5703,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2167.088989850826</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1878.013763195024</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1623.329274989137</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,40 +5764,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,7 +5825,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
         <v>95.58405025273903</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5983,16 +5983,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,22 +6001,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6062,7 +6062,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
         <v>95.58405025273903</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.3209912987577</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="26">
@@ -6223,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,16 +6238,16 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6265,10 +6265,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,13 +6475,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6554,16 +6554,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D31" t="n">
-        <v>194.8007783998291</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E31" t="n">
-        <v>194.8007783998291</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>194.8007783998291</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="32">
@@ -6688,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>194.8007783998291</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>194.8007783998291</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,16 +6949,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>264.0500279773693</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,16 +7186,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>800.5007694647281</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>631.5645865368213</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>481.4479471244855</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>333.5348535420924</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1492342949679</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362687</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>129.5921236250085</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2338.476105524075</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>2049.400878868273</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>1794.716390662386</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W43" t="n">
-        <v>1505.299220625425</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X43" t="n">
-        <v>1277.309669727408</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.517090583878</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,16 +7660,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1501.108204237296</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>6.310863011590584</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>80.44045370237458</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>63.36835372228151</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>39.70888054695388</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>187.7316302469143</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>125.5054897610401</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>186.7544012944549</v>
       </c>
     </row>
     <row r="26">
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>65.54986409393024</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>245.5619442858267</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>45.44677382459264</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>142.4141550350967</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>73.6241777260208</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>104.8770068749577</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0.3575234924699089</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>842573.8638075643</v>
+        <v>842573.8638075644</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>842573.8638075643</v>
+        <v>842573.8638075641</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>842573.8638075641</v>
+        <v>842573.8638075643</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>842573.8638075641</v>
+        <v>842573.8638075643</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>842573.8638075643</v>
+        <v>842573.8638075641</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>842573.8638075643</v>
+        <v>842573.8638075641</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>595255.2831516052</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516056</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="E2" t="n">
         <v>585181.2847752542</v>
       </c>
       <c r="F2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="G2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="H2" t="n">
+        <v>585181.2847752547</v>
+      </c>
+      <c r="I2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="J2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="K2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="L2" t="n">
         <v>585181.2847752545</v>
       </c>
-      <c r="G2" t="n">
+      <c r="M2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="H2" t="n">
-        <v>585181.2847752544</v>
-      </c>
-      <c r="I2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="J2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="K2" t="n">
-        <v>585181.2847752542</v>
-      </c>
-      <c r="L2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="M2" t="n">
-        <v>585181.2847752543</v>
-      </c>
       <c r="N2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752547</v>
       </c>
       <c r="O2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752547</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.469155386075727e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.170374162029475e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551169</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,25 +26420,25 @@
         <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405259</v>
+        <v>93596.74410405249</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405247</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189206</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189207</v>
+        <v>16046.58397189203</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189205</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189205</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="I4" t="n">
-        <v>16046.58397189192</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
         <v>16046.58397189197</v>
@@ -26524,46 +26524,46 @@
         <v>-935020.1472414333</v>
       </c>
       <c r="C6" t="n">
-        <v>393724.5984861594</v>
+        <v>393724.5984861592</v>
       </c>
       <c r="D6" t="n">
-        <v>393724.59848616</v>
+        <v>393724.5984861596</v>
       </c>
       <c r="E6" t="n">
-        <v>142252.3299177427</v>
+        <v>142564.9712466646</v>
       </c>
       <c r="F6" t="n">
-        <v>467664.7917250985</v>
+        <v>467977.4330540196</v>
       </c>
       <c r="G6" t="n">
-        <v>467664.7917250984</v>
+        <v>467977.4330540195</v>
       </c>
       <c r="H6" t="n">
-        <v>467664.7917250984</v>
+        <v>467977.4330540198</v>
       </c>
       <c r="I6" t="n">
-        <v>467664.7917250984</v>
+        <v>467977.4330540196</v>
       </c>
       <c r="J6" t="n">
-        <v>250133.5893278208</v>
+        <v>250446.2306567419</v>
       </c>
       <c r="K6" t="n">
-        <v>467664.7917250981</v>
+        <v>467977.4330540195</v>
       </c>
       <c r="L6" t="n">
-        <v>467664.7917250982</v>
+        <v>467977.4330540197</v>
       </c>
       <c r="M6" t="n">
-        <v>382609.7637895864</v>
+        <v>382922.405118508</v>
       </c>
       <c r="N6" t="n">
-        <v>467664.7917250982</v>
+        <v>467977.4330540198</v>
       </c>
       <c r="O6" t="n">
-        <v>467664.7917250982</v>
+        <v>467977.4330540195</v>
       </c>
       <c r="P6" t="n">
-        <v>467664.7917250981</v>
+        <v>467977.4330540198</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26740,10 +26740,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,10 +26792,10 @@
         <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.401455402293</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.401455402293</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100.0350347748407</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>312.4389741767271</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27432,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27539,19 +27539,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.0951906140741</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27596,7 +27596,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>210.3941672268152</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27618,19 +27618,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>159.1264480123947</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>332.6248785068123</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>72.66698746754767</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>160.3027978282313</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>227.232642894135</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>108.8774149194499</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>107.7439527351642</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>94.15744254776834</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,22 +28140,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.445284526978087e-12</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28262,7 +28262,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-4.713266813875332e-12</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -28338,13 +28338,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28380,10 +28380,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28493,7 +28493,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>5.938087749907733e-12</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -28566,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28578,10 +28578,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28854,13 +28854,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29052,7 +29052,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29091,7 +29091,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043711</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>429.5828357723605</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162548</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M7" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
